--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\PycharmProjects\PythonProject1\anthro-web\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6907A3-35D1-4AE6-8D42-43DCAB46160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C71FA-DEB3-49D8-9FD1-AC439FE07377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD0E5E17-5FD6-4C4E-83A4-EA2AA6AF8D9F}"/>
   </bookViews>
@@ -136,9 +136,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd\."/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -168,18 +165,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,25 +185,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -530,331 +524,332 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AF5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="32" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="9"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="9"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="B6" s="5"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="B15" s="5"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="B16" s="5"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="5"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="5"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="5"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="5"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="5"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5"/>
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
